--- a/public/app-assets/ImportSamples/6-UnitsSample.xlsx
+++ b/public/app-assets/ImportSamples/6-UnitsSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>floor_short_label *</t>
   </si>
@@ -58,16 +58,16 @@
     <t>additional_costs_name</t>
   </si>
   <si>
-    <t>GF</t>
+    <t>1F</t>
   </si>
   <si>
     <t>unit 1</t>
   </si>
   <si>
-    <t>GF-01</t>
-  </si>
-  <si>
-    <t>shops</t>
+    <t>1F-01</t>
+  </si>
+  <si>
+    <t>hotel-suits</t>
   </si>
   <si>
     <t>NULL</t>
@@ -76,19 +76,16 @@
     <t>yes</t>
   </si>
   <si>
-    <t>margla-view-facings</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>unit 4</t>
+    <t>gtroad-facings</t>
+  </si>
+  <si>
+    <t>unit 2</t>
   </si>
   <si>
     <t>1F-04</t>
   </si>
   <si>
-    <t>hotel-suits</t>
+    <t>type</t>
   </si>
   <si>
     <t>1F-02</t>
@@ -97,34 +94,31 @@
     <t>no</t>
   </si>
   <si>
+    <t>unit 3</t>
+  </si>
+  <si>
+    <t>1F-05</t>
+  </si>
+  <si>
+    <t>new-types</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>unit 7</t>
-  </si>
-  <si>
-    <t>1F-05</t>
-  </si>
-  <si>
-    <t>executive-suits</t>
-  </si>
-  <si>
-    <t>highway-facings</t>
+    <t>2F</t>
   </si>
   <si>
     <t>unit 8</t>
   </si>
   <si>
-    <t>1F-08</t>
-  </si>
-  <si>
-    <t>king-presidentail-suits</t>
-  </si>
-  <si>
-    <t>2F</t>
+    <t>2F-08</t>
   </si>
   <si>
     <t>2f-01</t>
+  </si>
+  <si>
+    <t>royal-suits</t>
   </si>
 </sst>
 </file>
@@ -132,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -188,10 +182,102 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <name val="DejaVu Sans"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -200,22 +286,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,114 +330,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +563,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +606,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,6 +628,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,166 +655,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,22 +784,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
@@ -1180,9 +1174,9 @@
         <v>100</v>
       </c>
       <c r="I2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1200,10 +1194,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -1212,42 +1206,40 @@
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3">
-        <v>500</v>
-      </c>
-      <c r="G3" s="3">
-        <v>510</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100</v>
-      </c>
-      <c r="I3" s="3">
-        <v>510000</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>11</v>
@@ -1256,42 +1248,42 @@
         <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3">
-        <v>900</v>
-      </c>
-      <c r="G4" s="3">
-        <v>920</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1010000</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>12</v>
@@ -1300,39 +1292,39 @@
         <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3">
-        <v>1330</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>
       </c>
       <c r="I5" s="3">
-        <v>1510000</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -1344,31 +1336,31 @@
         <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3">
-        <v>1740</v>
+        <v>100</v>
       </c>
       <c r="H6" s="3">
         <v>100</v>
       </c>
       <c r="I6" s="3">
-        <v>2010000</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
+        <v>1000</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
